--- a/CellUptake_Plots/Cell Uptake_Aryelle Experiment_02.09.2024/DIPLibrary_CellUptake_GeometricMeans.xlsx
+++ b/CellUptake_Plots/Cell Uptake_Aryelle Experiment_02.09.2024/DIPLibrary_CellUptake_GeometricMeans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/CellUptake_Plots/Cell Uptake_Aryelle Experiment_02.09.2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8E64247-52F8-F444-8A72-A985C749871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{94504863-D9E4-7D43-AFBE-66BDC78FA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIPLibrary_CellUptake_Geometric" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="126" uniqueCount="65">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="138" uniqueCount="65">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2501,9 +2501,11 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2519,8 +2521,17 @@
       <c r="E1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2536,8 +2547,19 @@
       <c r="E2">
         <v>37.7425</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:B4)</f>
+        <v>137.14523333333332</v>
+      </c>
+      <c r="H2">
+        <f>STDEV(B2:B4)</f>
+        <v>3.0774642960290151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2553,8 +2575,19 @@
       <c r="E3">
         <v>37.778500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B5:B7)</f>
+        <v>5355.0865999999996</v>
+      </c>
+      <c r="H3">
+        <f>STDEV(B5:B7)</f>
+        <v>65.317215750290345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2570,8 +2603,19 @@
       <c r="E4">
         <v>38.170999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B8:B10)</f>
+        <v>144757.95853333335</v>
+      </c>
+      <c r="H4">
+        <f>STDEV(B8:B10)</f>
+        <v>7849.7811571914235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2587,8 +2631,19 @@
       <c r="E5">
         <v>1.0955999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(B11:B13)</f>
+        <v>75569.738200000007</v>
+      </c>
+      <c r="H5">
+        <f>STDEV(B11:B13)</f>
+        <v>3851.2502215658369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2604,8 +2659,19 @@
       <c r="E6">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B14:B16)</f>
+        <v>59722.09426666666</v>
+      </c>
+      <c r="H6">
+        <f>STDEV(B14:B16)</f>
+        <v>50150.723658686766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2621,8 +2687,19 @@
       <c r="E7">
         <v>0.62909999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B17:B19)</f>
+        <v>11842.476433333331</v>
+      </c>
+      <c r="H7">
+        <f>STDEV(B17:B19)</f>
+        <v>898.8833893182383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2715,19 @@
       <c r="E8">
         <v>0.1075</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B20:B22)</f>
+        <v>38763.979266666669</v>
+      </c>
+      <c r="H8">
+        <f>STDEV(B20:B22)</f>
+        <v>6310.2056450739401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2655,8 +2743,19 @@
       <c r="E9">
         <v>2.7199999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B23:B25)</f>
+        <v>30772.651633333327</v>
+      </c>
+      <c r="H9">
+        <f>STDEV(B23:B25)</f>
+        <v>4367.1110222270918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2672,8 +2771,19 @@
       <c r="E10">
         <v>9.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B26:B28)</f>
+        <v>21410.490333333331</v>
+      </c>
+      <c r="H10">
+        <f>STDEV(B26:B28)</f>
+        <v>1685.4500277749723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2690,7 +2800,7 @@
         <v>0.8478</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2707,7 +2817,7 @@
         <v>0.3196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2724,7 +2834,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2851,7 @@
         <v>28.1752</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2758,7 +2868,7 @@
         <v>0.17849999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
